--- a/Data/GrandparentsModule.xlsx
+++ b/Data/GrandparentsModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E40208-422C-6345-88FD-7D94E96E76FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440366FE-BEDA-3840-BAAB-E60044046637}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="460" windowWidth="27240" windowHeight="15320" xr2:uid="{23C327B7-85A8-6C40-9AE1-668A49CB6C95}"/>
+    <workbookView xWindow="34680" yWindow="1900" windowWidth="27240" windowHeight="15320" xr2:uid="{23C327B7-85A8-6C40-9AE1-668A49CB6C95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>Question</t>
   </si>
@@ -39,90 +39,62 @@
     <t>Occurrence</t>
   </si>
   <si>
-    <t xml:space="preserve"> Are any of your children’s grandparents currently living?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•	Yes                                                                      •	No       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Skip To: End of Block If Are any of your children’s grandparents currently living? = No]                                                                                                            Is there a grandparent living in the household? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question: If Is there a grandparent living in the household?  = Yes]                                                                                                                        Is the grandparent helping with the household? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Did you move in with a grandparent or has a grandparent moved in with you since the pandemic began? </t>
   </si>
   <si>
-    <t xml:space="preserve">•	Yes, I moved in with a grandparent                                                                        •	Yes, grandparent moved in with me                                                                •	No  </t>
-  </si>
-  <si>
-    <t>[Display this question If Did you move in with a grandparent or has a grandparent moved in with you since the pandemic began?  = Yes, I moved in with a grandparent or Did you move in with a grandparent or has a grandparent moved in with you since the pandemic began?  = Yes, grandparent moved in with me]                                                                    Why?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•	To be together and avoid being isolated apart                                                                          •	To provide childcare                                                                •	For support with household  </t>
-  </si>
-  <si>
     <t>Does your child spend time with one or more grandparent? </t>
   </si>
   <si>
-    <t xml:space="preserve">•	Yes                                                                      •	No     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question If Does your child spend time with one or more grandparent?  = Yes]                                                                                               In what way does your child spend time with their grandparent(s)? Select all that apply.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•	In-person to provide necessary childcare coverage                                                                       •	In-person to play, bond, give parents a break                                                                  •	In-person when we are together as a family                                                                     •	Through video chat (e.g., Facetime, Zoom, Skype, etc.) or other screen time      </t>
-  </si>
-  <si>
     <t>Prior to the COVID-19 pandemic, did your child(ren)’s grandparents help with you and your child(ren)? Please select all the conditions that apply:</t>
   </si>
   <si>
-    <t>•	My child(ren)’s grandparent(s) provided help for us remotely                                                                 •	My child(ren)’s grandparent(s) provided help for us in person                                                              •	My child(ren)’s grandparent(s) did not provide help for us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•	Financially, helped us pay for bills, rent/mortgage, food, or other                                                                    •	Emotional support                                                        •	Helped us with chores                            •	Played with the child(ren)                                                                   •	Helped with child(ren)'s learning activities                                                                •Helped take care of my child(ren), ex. feeding, bathing etc.  </t>
-  </si>
-  <si>
     <t>During COVID-19, do your child(ren)’s grandparents help with you and your child(ren)? Please select all the conditions that apply:</t>
   </si>
   <si>
-    <t>•	My child(ren)’s grandparent(s) provided help for us remotely                                                               •	My child(ren)’s grandparent(s) provided help for us in person                                                              •	My child(ren)’s grandparent(s) did not provide help for us</t>
-  </si>
-  <si>
-    <t>Current, Week 27</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Week 37</t>
-  </si>
-  <si>
     <t xml:space="preserve">How are you related to the children you are raising?  </t>
   </si>
   <si>
-    <t>•	Birth parent or adoptive parent                                                             •	Grandparent                                                       •	Other relative                                                  •	Close family friend                              •	Member of same tribe/clan                                                 •	Foster parent                                               •	Other</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Display this question If During COVID-19, do your child(ren)’s grandparents help with you and your child(ren)? Please sele... = My child(ren)’s grandparent(s) provide help for us remotely
-Or During COVID-19, do your child(ren)’s grandparents help with you and your child(ren)? Please sele... = My child(ren)’s grandparent(s) provide help for us in person]                                                                                                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">In what ways do your child(ren)’s grandparent(s) provide help for you and your child(ren)?   </t>
-    </r>
+    <t xml:space="preserve">How has the fear of catching contracting COVID-19 affected the amount of in person time the child’s grandparent(s) spend with them?  </t>
+  </si>
+  <si>
+    <t>How has the fear of contracting COVID19 affected the amount of virtual time the child’s grandparent(s) spend with them?</t>
+  </si>
+  <si>
+    <t>In what other ways has your child's relationship with their grandparent(s) changed since COVID-19?</t>
+  </si>
+  <si>
+    <t>Open ended</t>
+  </si>
+  <si>
+    <t>Developed by RAPID Team</t>
+  </si>
+  <si>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generations United provided </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Skip To: End of Block If Are any of your children’s grandparents currently living? = No]
+                                                                                                            Is there a grandparent living in the household? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question: If Is there a grandparent living in the household?  = Yes]
+                                                                                                                        Is the grandparent helping with the household? </t>
+  </si>
+  <si>
+    <t>[Display this question If Did you move in with a grandparent or has a grandparent moved in with you since the pandemic began?  = Yes, I moved in with a grandparent or Did you move in with a grandparent or has a grandparent moved in with you since the pandemic began?  = Yes, grandparent moved in with me]
+Why?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question If Does your child spend time with one or more grandparent?  = Yes]
+                                                                                               In what way does your child spend time with their grandparent(s)? Select all that apply.  </t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">[Display this question If Prior to the COVID-19 pandemic, did your child(ren)’s grandparents help with you and your child(r... = My child(ren)’s grandparent(s) provided help for us remotely
-Or Prior to the COVID-19 pandemic, did your child(ren)’s grandparents help with you and your child(r... = My child(ren)’s grandparent(s) provided help for us in person]                                                                                                                      </t>
+Or Prior to the COVID-19 pandemic, did your child(ren)’s grandparents help with you and your child(r... = My child(ren)’s grandparent(s) provided help for us in person]
+                                                                                                                      </t>
     </r>
     <r>
       <rPr>
@@ -135,31 +107,80 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">How has the fear of catching contracting COVID-19 affected the amount of in person time the child’s grandparent(s) spend with them?  </t>
-  </si>
-  <si>
-    <t>How has the fear of contracting COVID19 affected the amount of virtual time the child’s grandparent(s) spend with them?</t>
-  </si>
-  <si>
-    <t>In what other ways has your child's relationship with their grandparent(s) changed since COVID-19?</t>
-  </si>
-  <si>
-    <t>Open ended</t>
-  </si>
-  <si>
-    <t>•	Reduced a lot                                                             •	Reduced a little                                                     •	No change                                              •	Increased a little                                                                •	Increased a lot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether or not your children’s grandparents live in your household, which of the following ways do they contribute to the care of your child since the start of the COVID-19 pandemic?                            •	Financially, helped us pay for bills, rent/mortgage, food, or other                                                                    •	Emotional support                                                        •	Helped us with chores                                    •	Played with the child(ren)                                                                   •	Helped with child(ren)'s learning activities                                                                •Helped take care of my child(ren), ex. feeding, bathing etc.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•	Decreased help                                                           •	Stayed the same                                                  •Increased help                                          •	N/A                                                    </t>
-  </si>
-  <si>
-    <t>Developed by RAPID Team</t>
-  </si>
-  <si>
-    <t>Generations United</t>
+    <t xml:space="preserve">Whether or not your children’s grandparents live in your household, which of the following ways do they contribute to the care of your child since the start of the COVID-19 pandemic?
+•Financially, helped us pay for bills, rent/mortgage, food, or other                                                                    •Emotional support                                                        •Helped us with chores                                    •Played with the child(ren)                                                                   •Helped with child(ren)'s learning activities                                                                •Helped take care of my child(ren), ex. feeding, bathing etc.  </t>
+  </si>
+  <si>
+    <t>27, 37</t>
+  </si>
+  <si>
+    <t>Are any of your children’s grandparents currently living?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question If During COVID-19, do your child(ren)’s grandparents help with you and your child(ren)? Please sele... = My child(ren)’s grandparent(s) provide help for us remotely
+Or During COVID-19, do your child(ren)’s grandparents help with you and your child(ren)? Please sele... = My child(ren)’s grandparent(s) provide help for us in person]
+In what ways do your child(ren)’s grandparent(s) provide help for you and your child(ren)?   </t>
+  </si>
+  <si>
+    <t>•Birth parent or adoptive parent
+•Grandparent
+•Other relative
+•Close family friend
+•Member of same tribe/clan
+•Foster parent
+•Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Yes
+•No       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Yes, I moved in with a grandparent
+•Yes, grandparent moved in with me
+•No  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•To be together and avoid being isolated apart
+•To provide childcare
+•For support with household  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•In-person to provide necessary childcare coverage
+•In-person to play, bond, give parents a break
+•In-person when we are together as a family
+•Through video chat (e.g., Facetime, Zoom, Skype, etc.) or other screen time      </t>
+  </si>
+  <si>
+    <t>•My child(ren)’s grandparent(s) provided help for us remotely
+•My child(ren)’s grandparent(s) provided help for us in person
+•My child(ren)’s grandparent(s) did not provide help for us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Financially, helped us pay for bills, rent/mortgage, food, or other
+•Emotional support
+•Helped us with chores
+•Played with the child(ren)•Helped with child(ren)'s learning activities                                                               
+•Helped take care of my child(ren), ex. feeding, bathing etc.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Financially, helped us pay for bills, rent/mortgage, food, or other
+•Emotional support
+•Helped us with chores
+•Played with the child(ren)•Helped with child(ren)'s learning activities                                                          
+•Helped take care of my child(ren), ex. feeding, bathing etc.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Decreased help
+•Stayed the same
+•Increased help
+•N/A                                                    </t>
+  </si>
+  <si>
+    <t>•Reduced a lot 
+•Reduced a little
+•No change
+•Increased a little
+•Increased a lot</t>
   </si>
 </sst>
 </file>
@@ -227,26 +248,26 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,270 +583,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9A7F98-C6B1-CD42-98D5-524BBF7F14DE}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="37.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="40" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="18.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="154" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="154" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="182" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="46" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="46" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="121" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="168" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="46" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17">
+      <c r="D17" s="3"/>
+      <c r="E17" s="2">
         <v>37</v>
       </c>
     </row>

--- a/Data/GrandparentsModule.xlsx
+++ b/Data/GrandparentsModule.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25103"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440366FE-BEDA-3840-BAAB-E60044046637}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440366FE-BEDA-3840-BAAB-E60044046637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34680" yWindow="1900" windowWidth="27240" windowHeight="15320" xr2:uid="{23C327B7-85A8-6C40-9AE1-668A49CB6C95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Question</t>
   </si>
@@ -36,43 +45,38 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Occurrence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did you move in with a grandparent or has a grandparent moved in with you since the pandemic began? </t>
-  </si>
-  <si>
-    <t>Does your child spend time with one or more grandparent? </t>
-  </si>
-  <si>
-    <t>Prior to the COVID-19 pandemic, did your child(ren)’s grandparents help with you and your child(ren)? Please select all the conditions that apply:</t>
-  </si>
-  <si>
-    <t>During COVID-19, do your child(ren)’s grandparents help with you and your child(ren)? Please select all the conditions that apply:</t>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t>Dates Used</t>
   </si>
   <si>
     <t xml:space="preserve">How are you related to the children you are raising?  </t>
   </si>
   <si>
-    <t xml:space="preserve">How has the fear of catching contracting COVID-19 affected the amount of in person time the child’s grandparent(s) spend with them?  </t>
-  </si>
-  <si>
-    <t>How has the fear of contracting COVID19 affected the amount of virtual time the child’s grandparent(s) spend with them?</t>
-  </si>
-  <si>
-    <t>In what other ways has your child's relationship with their grandparent(s) changed since COVID-19?</t>
-  </si>
-  <si>
-    <t>Open ended</t>
+    <t>•Birth parent or adoptive parent
+•Grandparent
+•Other relative
+•Close family friend
+•Member of same tribe/clan
+•Foster parent
+•Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generations United provided </t>
+  </si>
+  <si>
+    <t>10/05/2020-10/08/2020 12/15/2020-12/17/2020</t>
+  </si>
+  <si>
+    <t>Are any of your children’s grandparents currently living?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Yes
+•No       </t>
   </si>
   <si>
     <t>Developed by RAPID Team</t>
-  </si>
-  <si>
-    <t>Source Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generations United provided </t>
   </si>
   <si>
     <t xml:space="preserve">[Skip To: End of Block If Are any of your children’s grandparents currently living? = No]
@@ -83,12 +87,42 @@
                                                                                                                         Is the grandparent helping with the household? </t>
   </si>
   <si>
+    <t xml:space="preserve">Did you move in with a grandparent or has a grandparent moved in with you since the pandemic began? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Yes, I moved in with a grandparent
+•Yes, grandparent moved in with me
+•No  </t>
+  </si>
+  <si>
     <t>[Display this question If Did you move in with a grandparent or has a grandparent moved in with you since the pandemic began?  = Yes, I moved in with a grandparent or Did you move in with a grandparent or has a grandparent moved in with you since the pandemic began?  = Yes, grandparent moved in with me]
 Why?</t>
   </si>
   <si>
+    <t xml:space="preserve">•To be together and avoid being isolated apart
+•To provide childcare
+•For support with household  </t>
+  </si>
+  <si>
+    <t>Does your child spend time with one or more grandparent? </t>
+  </si>
+  <si>
     <t xml:space="preserve">[Display this question If Does your child spend time with one or more grandparent?  = Yes]
                                                                                                In what way does your child spend time with their grandparent(s)? Select all that apply.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•In-person to provide necessary childcare coverage
+•In-person to play, bond, give parents a break
+•In-person when we are together as a family
+•Through video chat (e.g., Facetime, Zoom, Skype, etc.) or other screen time      </t>
+  </si>
+  <si>
+    <t>Prior to the COVID-19 pandemic, did your child(ren)’s grandparents help with you and your child(ren)? Please select all the conditions that apply:</t>
+  </si>
+  <si>
+    <t>•My child(ren)’s grandparent(s) provided help for us remotely
+•My child(ren)’s grandparent(s) provided help for us in person
+•My child(ren)’s grandparent(s) did not provide help for us</t>
   </si>
   <si>
     <r>
@@ -107,55 +141,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not your children’s grandparents live in your household, which of the following ways do they contribute to the care of your child since the start of the COVID-19 pandemic?
-•Financially, helped us pay for bills, rent/mortgage, food, or other                                                                    •Emotional support                                                        •Helped us with chores                                    •Played with the child(ren)                                                                   •Helped with child(ren)'s learning activities                                                                •Helped take care of my child(ren), ex. feeding, bathing etc.  </t>
-  </si>
-  <si>
-    <t>27, 37</t>
-  </si>
-  <si>
-    <t>Are any of your children’s grandparents currently living?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question If During COVID-19, do your child(ren)’s grandparents help with you and your child(ren)? Please sele... = My child(ren)’s grandparent(s) provide help for us remotely
-Or During COVID-19, do your child(ren)’s grandparents help with you and your child(ren)? Please sele... = My child(ren)’s grandparent(s) provide help for us in person]
-In what ways do your child(ren)’s grandparent(s) provide help for you and your child(ren)?   </t>
-  </si>
-  <si>
-    <t>•Birth parent or adoptive parent
-•Grandparent
-•Other relative
-•Close family friend
-•Member of same tribe/clan
-•Foster parent
-•Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Yes
-•No       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Yes, I moved in with a grandparent
-•Yes, grandparent moved in with me
-•No  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•To be together and avoid being isolated apart
-•To provide childcare
-•For support with household  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•In-person to provide necessary childcare coverage
-•In-person to play, bond, give parents a break
-•In-person when we are together as a family
-•Through video chat (e.g., Facetime, Zoom, Skype, etc.) or other screen time      </t>
-  </si>
-  <si>
-    <t>•My child(ren)’s grandparent(s) provided help for us remotely
-•My child(ren)’s grandparent(s) provided help for us in person
-•My child(ren)’s grandparent(s) did not provide help for us</t>
-  </si>
-  <si>
     <t xml:space="preserve">•Financially, helped us pay for bills, rent/mortgage, food, or other
 •Emotional support
 •Helped us with chores
@@ -163,6 +148,14 @@
 •Helped take care of my child(ren), ex. feeding, bathing etc.  </t>
   </si>
   <si>
+    <t>During COVID-19, do your child(ren)’s grandparents help with you and your child(ren)? Please select all the conditions that apply:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question If During COVID-19, do your child(ren)’s grandparents help with you and your child(ren)? Please sele... = My child(ren)’s grandparent(s) provide help for us remotely
+Or During COVID-19, do your child(ren)’s grandparents help with you and your child(ren)? Please sele... = My child(ren)’s grandparent(s) provide help for us in person]
+In what ways do your child(ren)’s grandparent(s) provide help for you and your child(ren)?   </t>
+  </si>
+  <si>
     <t xml:space="preserve">•Financially, helped us pay for bills, rent/mortgage, food, or other
 •Emotional support
 •Helped us with chores
@@ -170,10 +163,20 @@
 •Helped take care of my child(ren), ex. feeding, bathing etc.  </t>
   </si>
   <si>
+    <t xml:space="preserve">Whether or not your children’s grandparents live in your household, which of the following ways do they contribute to the care of your child since the start of the COVID-19 pandemic?
+•Financially, helped us pay for bills, rent/mortgage, food, or other                                                                    •Emotional support                                                        •Helped us with chores                                    •Played with the child(ren)                                                                   •Helped with child(ren)'s learning activities                                                                •Helped take care of my child(ren), ex. feeding, bathing etc.  </t>
+  </si>
+  <si>
     <t xml:space="preserve">•Decreased help
 •Stayed the same
 •Increased help
 •N/A                                                    </t>
+  </si>
+  <si>
+    <t>12/15/2020-12/17/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How has the fear of catching contracting COVID-19 affected the amount of in person time the child’s grandparent(s) spend with them?  </t>
   </si>
   <si>
     <t>•Reduced a lot 
@@ -182,12 +185,21 @@
 •Increased a little
 •Increased a lot</t>
   </si>
+  <si>
+    <t>How has the fear of contracting COVID19 affected the amount of virtual time the child’s grandparent(s) spend with them?</t>
+  </si>
+  <si>
+    <t>In what other ways has your child's relationship with their grandparent(s) changed since COVID-19?</t>
+  </si>
+  <si>
+    <t>Open ended</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -585,20 +597,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9A7F98-C6B1-CD42-98D5-524BBF7F14DE}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="40" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.1640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="37.125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="18.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,250 +621,250 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="110.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="31.5">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="71.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="71.25">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="128.25">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.5">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="135">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="90">
+      <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="153">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="90">
+      <c r="A12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="140.25">
+      <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="178.5">
+      <c r="A14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="154" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="75">
+      <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="154" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="75">
+      <c r="A16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="182" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="42.75">
+      <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="2">
-        <v>37</v>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Data/GrandparentsModule.xlsx
+++ b/Data/GrandparentsModule.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgRh0vQZdviLVqkzK+ki19Tyz6nXw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi6uejbqQC8XB2SzPtZe6lGJaJdSw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -185,7 +185,7 @@
     <t>In what other ways has your child's relationship with their grandparent(s) changed since COVID-19?</t>
   </si>
   <si>
-    <t>Open ended</t>
+    <t>Open ended response</t>
   </si>
 </sst>
 </file>
@@ -240,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -267,6 +267,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,7 +1076,7 @@
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="2" t="s">

--- a/Data/GrandparentsModule.xlsx
+++ b/Data/GrandparentsModule.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi6uejbqQC8XB2SzPtZe6lGJaJdSw=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="2qqNi98+HJHH7mkQh5VTXSrLkKXBVo4z6KpO06Vuyms="/>
     </ext>
   </extLst>
 </workbook>
@@ -240,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -261,6 +261,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -857,7 +860,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -893,7 +896,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -965,7 +968,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1001,7 +1004,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1037,7 +1040,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1076,7 +1079,7 @@
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
